--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/DATA_FLAVORS_COLLECTED_HO.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/DATA_FLAVORS_COLLECTED_HO.xlsx
@@ -171,7 +171,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Random Oracle</a:t>
+              <a:t>Human Oracle</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>

--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/DATA_FLAVORS_COLLECTED_HO.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/DATA_FLAVORS_COLLECTED_HO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoss" sheetId="1" r:id="rId1"/>
@@ -157,21 +157,17 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Over All Accuracy</a:t>
+              <a:t>Human Oracle </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Human Oracle</a:t>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -253,20 +249,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>TestAccuracy!$B$2:$Q$2</c:f>
@@ -364,20 +346,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>TestAccuracy!$B$3:$Q$3</c:f>
@@ -454,7 +422,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -469,26 +439,14 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>TestAccuracy!$B$4:$Q$4</c:f>
@@ -1292,15 +1250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>50799</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774699</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1814,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="A2:Q4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/DATA_FLAVORS_COLLECTED_HO.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/DATA_FLAVORS_COLLECTED_HO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srose3/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoss" sheetId="1" r:id="rId1"/>
@@ -516,11 +516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209978080"/>
-        <c:axId val="209980128"/>
+        <c:axId val="-236618944"/>
+        <c:axId val="-236616896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209978080"/>
+        <c:axId val="-236618944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209980128"/>
+        <c:crossAx val="-236616896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209980128"/>
+        <c:axId val="-236616896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -621,7 +621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209978080"/>
+        <c:crossAx val="-236618944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,13 +1252,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>774699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
